--- a/Plantilla_de_Casos_de_Uso-EquipoD.xlsx
+++ b/Plantilla_de_Casos_de_Uso-EquipoD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yarelbaizabalvargas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821029E-E3F3-7244-8C0A-28C49FD31F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F7FE2-D4A5-4B51-B439-BDE21FBB76D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17840" yWindow="460" windowWidth="10960" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Columna</t>
   </si>
@@ -284,6 +284,27 @@
   </si>
   <si>
     <t>El usuario podra visualizar un reporte de las perdidas en el inventario</t>
+  </si>
+  <si>
+    <t>JHAIR GARCIA CEBALLOS</t>
+  </si>
+  <si>
+    <t>EN PROCESO</t>
+  </si>
+  <si>
+    <t>YAREL</t>
+  </si>
+  <si>
+    <t>RUBEN JAHIR  RIVERA M.</t>
+  </si>
+  <si>
+    <t>ANDRES FLORES SANTAMARIA</t>
+  </si>
+  <si>
+    <t>ANDRE HERNANDEZ C.</t>
+  </si>
+  <si>
+    <t>YAREL BAIZABAL VARGAS</t>
   </si>
 </sst>
 </file>
@@ -2238,31 +2259,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="39.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2296,91 +2317,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2447,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
@@ -2408,7 +2461,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2475,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2489,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
@@ -2450,7 +2503,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
@@ -2464,7 +2517,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>43</v>
       </c>
@@ -2478,7 +2531,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
@@ -2492,7 +2545,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
@@ -2506,7 +2559,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2573,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
@@ -2534,7 +2587,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
@@ -2548,7 +2601,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
@@ -2562,7 +2615,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
@@ -2576,7 +2629,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
@@ -2590,7 +2643,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>70</v>
       </c>
@@ -2604,7 +2657,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>71</v>
       </c>
@@ -2618,7 +2671,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>72</v>
       </c>
@@ -2632,7 +2685,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
@@ -2647,7 +2700,7 @@
       <c r="I29" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:I5">
+  <conditionalFormatting sqref="B5:I5 E6:F9">
     <cfRule type="expression" dxfId="136" priority="226">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2661,12 +2714,12 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F5:F9">
     <cfRule type="expression" dxfId="132" priority="234">
       <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
+  <conditionalFormatting sqref="B6:D6 G6:I6">
     <cfRule type="expression" dxfId="131" priority="128">
       <formula>$E$6="Planificado"</formula>
     </cfRule>
@@ -2680,12 +2733,7 @@
       <formula>$E$6="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="127" priority="132">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7 D7:I7">
+  <conditionalFormatting sqref="B7 D7 G7:I7">
     <cfRule type="expression" dxfId="126" priority="123">
       <formula>$E$7="Planificado"</formula>
     </cfRule>
@@ -2699,12 +2747,7 @@
       <formula>$E$7="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="122" priority="127">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:I8">
+  <conditionalFormatting sqref="B8:D8 G8:I8">
     <cfRule type="expression" dxfId="121" priority="118">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2718,12 +2761,7 @@
       <formula>$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="117" priority="122">
-      <formula>$E$5:$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:I9">
+  <conditionalFormatting sqref="B9:D9 G9:I9">
     <cfRule type="expression" dxfId="116" priority="113">
       <formula>$E$5="Planificado"</formula>
     </cfRule>
@@ -2735,11 +2773,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="116">
       <formula>$E$5="Hecho"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="112" priority="117">
-      <formula>$E$5:$E$5="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 D10:I10">
@@ -3203,26 +3236,26 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3238,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -3246,7 +3279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3254,7 +3287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3293,7 +3326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +3343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -3330,21 +3363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002DCF47DE09AC674AB7E626CDC1B1EF7A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="776b17becca264070ad0bc71f527f7a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07db6c27-1a00-4f0d-95c9-408bac0a2de3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="008ac112bc2de9bf3bd1ef5ff2c9376c" ns2:_="">
     <xsd:import namespace="07db6c27-1a00-4f0d-95c9-408bac0a2de3"/>
@@ -3506,24 +3524,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24348BD2-B1AE-4F0F-BBB9-7FEEB4DD9389}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A717DCE-A288-400C-93A6-BEA16FD1D32F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983EE3C4-B293-4D14-8783-755596DBFEEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3539,4 +3555,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A717DCE-A288-400C-93A6-BEA16FD1D32F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24348BD2-B1AE-4F0F-BBB9-7FEEB4DD9389}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>